--- a/docs/OVW Sheets/OVWDemo_benefits.xlsx
+++ b/docs/OVW Sheets/OVWDemo_benefits.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arachapa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 29\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="9675" firstSheet="34" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="9675" firstSheet="37" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="en_au" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="180">
   <si>
     <t>products</t>
   </si>
@@ -86,132 +86,6 @@
   </si>
   <si>
     <t>collaboration</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ANZ/products/unified_computing/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/AT/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/fr/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BE/nl/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/BR/produtos/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CA/products/unified_computing/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CA/products/unified_computing/benefits_fr.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CH/de/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CH/fr/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/DK/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/EA/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/EA/products/FR/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ES/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/FR/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/HK/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/HK/tc/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IL/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IN/products/unified_computing/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/IT/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/KR/products/pc/unified_computing/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/productos/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ME/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ME/ar/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/NL/producten/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/NO/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/PL/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/PT/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/RU/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/SE/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/SG/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TH/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TR/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/TW/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/UA/products/uc/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/cisco/web/UK/products/unified_computing/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/ZA/products/uc/technology.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CN/products/products_netsol/ucs/benefits.html</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/JP/product/hs/ucs/benefits.html</t>
-  </si>
-  <si>
-    <t>servers-unified-computing</t>
-  </si>
-  <si>
-    <t>benefit-var1</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/DE/products/unified_computing/benefits.html</t>
   </si>
   <si>
     <t>http://www.cisco.com/web/ANZ/netsol/sp/benefit.html</t>
@@ -1102,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,28 +991,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1146,43 +1020,29 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1192,7 +1052,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1200,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,24 +1077,24 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>101</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1243,29 +1102,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1274,7 +1119,6 @@
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1282,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,24 +1144,24 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1325,13 +1169,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1339,29 +1183,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1371,7 +1201,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1394,13 +1223,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1408,13 +1237,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>103</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1431,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,93 +1275,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://www.cisco.com/web/DE/products/unified_computing/solutions.html"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,27 +1358,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1572,13 +1386,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1586,29 +1400,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1618,7 +1418,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1626,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,27 +1440,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1669,13 +1468,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1683,29 +1482,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1715,7 +1500,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1723,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,27 +1522,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1766,13 +1550,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1780,29 +1564,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1582,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1820,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,27 +1604,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1863,13 +1632,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1877,29 +1646,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1909,7 +1664,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1920,7 +1674,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,13 +1686,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1946,13 +1700,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1969,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,27 +1738,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2012,13 +1766,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2026,29 +1780,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2058,7 +1798,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2066,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,28 +1819,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2109,43 +1848,29 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2155,7 +1880,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2178,13 +1902,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2192,13 +1916,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>111</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2215,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,42 +1953,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
+      <c r="A1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>105</v>
+      <c r="A3" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2272,29 +1996,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2304,7 +2014,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2312,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,28 +2035,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
+      <c r="A1" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2355,13 +2064,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2369,29 +2078,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2401,7 +2096,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2424,13 +2118,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2438,13 +2132,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>114</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2476,13 +2170,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2490,13 +2184,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2504,13 +2198,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2528,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,28 +2236,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>116</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2573,27 +2267,13 @@
       <c r="A3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2602,7 +2282,6 @@
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2610,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,28 +2303,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
+      <c r="A1" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2653,13 +2332,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2669,37 +2348,22 @@
       <c r="A4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://www.cisco.com/web/IN/products/unified_computing/services.html"/>
+    <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2707,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,27 +2386,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2750,13 +2414,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2766,27 +2430,13 @@
       <c r="A4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2796,7 +2446,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2804,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,27 +2468,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2847,13 +2496,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2863,37 +2512,22 @@
       <c r="A4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://www.cisco.com/web/KR/products/pc/unified_computing/services.html"/>
+    <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2901,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,27 +2550,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -2944,43 +2578,29 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2990,7 +2610,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2998,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,28 +2631,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3041,13 +2660,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3055,29 +2674,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3087,7 +2692,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3095,10 +2699,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3110,27 +2714,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3138,43 +2742,29 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3184,7 +2774,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3192,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,27 +2796,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3235,43 +2824,29 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3281,7 +2856,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3289,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,28 +2877,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
+      <c r="A1" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3332,13 +2906,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3348,27 +2922,13 @@
       <c r="A4" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3378,7 +2938,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3386,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,71 +2960,57 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>117</v>
+      <c r="A3" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3475,7 +3020,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3483,10 +3027,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,27 +3042,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3526,43 +3070,29 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3572,7 +3102,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3580,10 +3109,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3595,27 +3124,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3623,43 +3152,29 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3669,7 +3184,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3692,13 +3206,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -3706,13 +3220,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3729,10 +3243,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3743,28 +3257,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
+      <c r="A1" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3772,43 +3286,29 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3818,7 +3318,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3826,10 +3325,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,28 +3339,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
+      <c r="A1" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3869,13 +3368,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3883,29 +3382,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3915,7 +3400,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3923,10 +3407,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3938,27 +3422,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3966,13 +3450,177 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3982,27 +3630,13 @@
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4012,212 +3646,17 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4228,28 +3667,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>37</v>
+      <c r="A1" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4257,13 +3696,95 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -4273,27 +3794,13 @@
       <c r="A4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4303,115 +3810,17 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,28 +3831,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4451,29 +3860,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4482,7 +3877,6 @@
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4490,10 +3884,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4504,28 +3898,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4533,13 +3927,95 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -4549,145 +4025,33 @@
       <c r="A4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://www.cisco.com/cisco/web/UK/products/unified_computing/services.html"/>
+    <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://www.cisco.com/web/ZA/products/voice/index.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5" display="http://www.cisco.com/web/ZA/products/voice/index.html"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4698,28 +4062,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>133</v>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4727,29 +4091,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4758,7 +4108,6 @@
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4766,10 +4115,10 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4781,66 +4130,51 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4864,13 +4198,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4878,13 +4212,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>139</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4902,10 +4236,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4920,24 +4254,24 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -4945,13 +4279,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -4959,29 +4293,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4991,7 +4311,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5014,13 +4333,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -5028,13 +4347,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
+        <v>97</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5051,10 +4370,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5065,28 +4384,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5094,13 +4413,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -5108,29 +4427,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5140,7 +4445,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5148,10 +4452,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5162,28 +4466,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5191,13 +4495,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -5205,29 +4509,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5237,7 +4527,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5245,10 +4534,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5259,28 +4548,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -5288,43 +4577,29 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5334,7 +4609,6 @@
     <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
